--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/67/word_level_predictions_67.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>9</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9186,210 +9186,210 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E169" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G169" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G170" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G171" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9550,574 +9550,574 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10694,312 +10694,312 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F200" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="G200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
+      <c r="I200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
+      <c r="I201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
-        <v>2</v>
-      </c>
-      <c r="E200" t="inlineStr">
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="F202" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr">
+      <c r="I202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>18</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>3</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>18</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>4</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>18</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>5</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="I203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G204" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="F211" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G211" s="2" t="b">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="L211" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="F212" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G212" s="2" t="b">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="L212" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12670,260 +12670,260 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
+      <c r="A236" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" t="n">
+      <c r="D236" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem1/67/word_level_predictions_67.xlsx
@@ -537,11 +537,11 @@
         </is>
       </c>
       <c r="I2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K2" s="2" t="b">
@@ -589,11 +589,11 @@
         </is>
       </c>
       <c r="I3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K3" s="2" t="b">
@@ -641,11 +641,11 @@
         </is>
       </c>
       <c r="I4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K4" s="2" t="b">
@@ -693,11 +693,11 @@
         </is>
       </c>
       <c r="I5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K5" s="2" t="b">
@@ -745,11 +745,11 @@
         </is>
       </c>
       <c r="I6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K6" s="2" t="b">
@@ -797,11 +797,11 @@
         </is>
       </c>
       <c r="I7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K7" s="2" t="b">
@@ -849,11 +849,11 @@
         </is>
       </c>
       <c r="I8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K8" s="2" t="b">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="I9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K9" s="2" t="b">
@@ -953,11 +953,11 @@
         </is>
       </c>
       <c r="I10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K10" s="2" t="b">
@@ -1005,11 +1005,11 @@
         </is>
       </c>
       <c r="I11" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K11" s="2" t="b">
@@ -1057,11 +1057,11 @@
         </is>
       </c>
       <c r="I12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K12" s="2" t="b">
@@ -1109,11 +1109,11 @@
         </is>
       </c>
       <c r="I13" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K13" s="2" t="b">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1161,11 +1161,11 @@
         </is>
       </c>
       <c r="I14" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G28" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G29" t="b">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="D88" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9186,210 +9186,210 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" t="n">
         <v>15</v>
       </c>
-      <c r="B169" s="2" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C169" s="2" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" t="n">
         <v>5</v>
       </c>
-      <c r="E169" s="2" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F169" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" t="n">
         <v>15</v>
       </c>
-      <c r="B170" s="2" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C170" s="2" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D170" s="2" t="n">
+      <c r="D170" t="n">
         <v>6</v>
       </c>
-      <c r="E170" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F170" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G170" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I170" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L170" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" t="n">
         <v>15</v>
       </c>
-      <c r="B171" s="2" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C171" s="2" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" t="n">
         <v>7</v>
       </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>15</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>8</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F172" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9550,574 +9550,574 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>16</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>3</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>16</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>4</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>16</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>5</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>16</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>6</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>16</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>7</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>16</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>8</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>16</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>9</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>10</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>16</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>11</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>16</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>12</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10694,312 +10694,312 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>18</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" t="n">
         <v>0</v>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>18</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" t="n">
         <v>18</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" t="n">
         <v>2</v>
       </c>
-      <c r="E200" s="2" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F200" s="2" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" t="n">
         <v>18</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" t="n">
         <v>3</v>
       </c>
-      <c r="E201" s="2" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F201" s="2" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" t="n">
         <v>18</v>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" t="n">
         <v>4</v>
       </c>
-      <c r="E202" s="2" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F202" s="2" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" t="n">
         <v>18</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" t="n">
         <v>5</v>
       </c>
-      <c r="E203" s="2" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F203" s="2" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2" t="inlineStr">
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G204" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="F211" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G211" s="2" t="b">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="L211" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="F212" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G212" s="2" t="b">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="L212" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12670,260 +12670,260 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>20</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>9</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
         <v>20</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
         <v>20</v>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F238" s="2" t="inlineStr">
+      <c r="F239" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
         <v>20</v>
       </c>
-      <c r="B239" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
